--- a/data/ossc.xlsx
+++ b/data/ossc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepTemplates\PakPC2023\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepTemplates\D4D\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0138636B-99FB-4820-A0E1-5EE0E2B55EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B285879F-ABA6-4070-AA42-860ABCC06DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{761D740B-12F2-4FCD-9A3E-42F18F3CB5EC}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="167">
   <si>
     <t>Province</t>
   </si>
@@ -545,12 +545,6 @@
   </si>
   <si>
     <t>Ziarat</t>
-  </si>
-  <si>
-    <t>New districts added, population data available but no OSSC data points</t>
-  </si>
-  <si>
-    <t>OSSC data available, but no population data points available</t>
   </si>
   <si>
     <t>district</t>
@@ -599,7 +593,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -627,12 +621,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,7 +654,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -699,7 +687,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1285,11 +1272,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706AC4F7-5C63-4038-9C95-343FDCBFE8CE}">
-  <dimension ref="A1:AF137"/>
+  <dimension ref="A1:AF134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1324,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -14119,21 +14106,6 @@
     </row>
     <row r="134" spans="1:32" x14ac:dyDescent="0.25">
       <c r="P134" s="19"/>
-    </row>
-    <row r="135" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="P135" s="19"/>
-    </row>
-    <row r="136" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="C136" s="20"/>
-      <c r="D136" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="137" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="C137" s="18"/>
-      <c r="D137" s="3" t="s">
-        <v>167</v>
-      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:G6 Z2:Z37 AC2:AC37 AF2:AF37">
